--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\César Trincado\Desktop\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6B3048-1FC5-4D43-8642-7D9AA76F9930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37660A45-0F31-4048-8E20-BF56F39175B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="825" windowWidth="18045" windowHeight="7875" tabRatio="252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>RUT</t>
   </si>
@@ -39,9 +39,6 @@
     <t>csrtr94@gmail.com</t>
   </si>
   <si>
-    <t>18764371-6</t>
-  </si>
-  <si>
     <t>cesar@gmail.com</t>
   </si>
   <si>
@@ -61,13 +58,16 @@
   </si>
   <si>
     <t>correo@gmail.com</t>
+  </si>
+  <si>
+    <t>18069952k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -119,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +138,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +427,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -469,7 +479,7 @@
         <v>110214257</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4">
         <v>4444999</v>
@@ -479,20 +489,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="2">
+        <v>186953526</v>
       </c>
       <c r="B3" s="2">
         <v>25963521</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>536852023</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <v>5555999</v>
@@ -509,13 +519,13 @@
         <v>92836409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>258963147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>9283640</v>
@@ -524,8 +534,52 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>92836409</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>250325112</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9283640</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>157208608</v>
+      </c>
+      <c r="B6" s="2">
+        <v>92836409</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>250325112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9283640</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2323</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -604,8 +658,10 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FEB6EF71-9414-43B6-9C88-560F024FAA42}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{960A9FC5-5A40-498F-B635-5DCD10B2C1F0}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{CAB8B061-41E8-4FA6-9967-364FF34CD9FE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A4388A6C-0736-4CE4-8FCB-CE9032FD44FF}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A2E67986-C84B-4003-B720-FD7C98F60ED9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>